--- a/files/20220822_movimentacaoFundosAnbima.xlsx
+++ b/files/20220822_movimentacaoFundosAnbima.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tower3br-my.sharepoint.com/personal/kevyn_marcelino_tower3_com_br/Documents/Área de Trabalho/Projetos/ANBIMA/files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_6185E6231630921FD2FE31D2F8F2D3C2C453285F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{084D3ED9-649A-402D-98A3-A3B0F72B9CE9}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -61,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +131,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -171,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,9 +217,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,6 +269,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,14 +462,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -447,19 +507,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-4977.536403730001</v>
+        <v>-4977.5364037300014</v>
       </c>
       <c r="D2">
-        <v>63427.83579017002</v>
+        <v>63427.835790170022</v>
       </c>
       <c r="E2">
-        <v>148432.2785503134</v>
+        <v>148432.27855031341</v>
       </c>
       <c r="F2">
-        <v>169465.1096564202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>169465.10965642019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -467,19 +527,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-607.6034002200003</v>
+        <v>-607.60340022000025</v>
       </c>
       <c r="D3">
-        <v>-4180.59394145</v>
+        <v>-4180.5939414499999</v>
       </c>
       <c r="E3">
-        <v>-54203.81235990865</v>
+        <v>-54203.812359908647</v>
       </c>
       <c r="F3">
         <v>-60262.74775580765</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -487,19 +547,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-1959.38265715</v>
+        <v>-1959.3826571499999</v>
       </c>
       <c r="D4">
         <v>-1842.339778807765</v>
       </c>
       <c r="E4">
-        <v>-74533.64552763081</v>
+        <v>-74533.645527630812</v>
       </c>
       <c r="F4">
-        <v>-99080.07585772641</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-99080.075857726406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -507,19 +567,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-15.35531871</v>
+        <v>-15.355318710000001</v>
       </c>
       <c r="D5">
         <v>-189.99117353</v>
       </c>
       <c r="E5">
-        <v>757.6268003299998</v>
+        <v>757.62680032999981</v>
       </c>
       <c r="F5">
-        <v>1030.98615615</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1030.9861561499999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -527,19 +587,19 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>254.4622391999999</v>
+        <v>254.46223919999991</v>
       </c>
       <c r="D6">
         <v>2052.890681270002</v>
       </c>
       <c r="E6">
-        <v>6532.780412481889</v>
+        <v>6532.7804124818886</v>
       </c>
       <c r="F6">
         <v>11800.89846665507</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -547,19 +607,19 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>-37.24079709</v>
+        <v>-37.240797090000001</v>
       </c>
       <c r="D7">
-        <v>1058.67795285</v>
+        <v>1058.6779528500001</v>
       </c>
       <c r="E7">
-        <v>-2203.228078790001</v>
+        <v>-2203.2280787900008</v>
       </c>
       <c r="F7">
         <v>2338.915820650001</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -567,16 +627,16 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>-7342.656337700001</v>
+        <v>-7342.6563377000011</v>
       </c>
       <c r="D8">
-        <v>60326.47953050226</v>
+        <v>60326.479530502264</v>
       </c>
       <c r="E8">
-        <v>24781.99979679586</v>
+        <v>24781.999796795859</v>
       </c>
       <c r="F8">
-        <v>25293.08648634126</v>
+        <v>25293.086486341261</v>
       </c>
     </row>
   </sheetData>
